--- a/Project_Plan_Docs/CSC_289_Group_2_Project_Backlog.xlsx
+++ b/Project_Plan_Docs/CSC_289_Group_2_Project_Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Programming Capstone Project\Inventory-Management-System\Project_Plan_Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36B97831-010D-4D97-A47B-FC2BBEDA7911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B189B6A5-1756-4480-B076-4FF4642C5B52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{C7E6936B-90AD-4E41-93D8-8E23721F7813}"/>
   </bookViews>
@@ -768,7 +768,7 @@
   <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1512,5 +1512,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Project_Plan_Docs/CSC_289_Group_2_Project_Backlog.xlsx
+++ b/Project_Plan_Docs/CSC_289_Group_2_Project_Backlog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Programming Capstone Project\Inventory-Management-System\Project_Plan_Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\docto\Documents\Programming Capstone Project\Inventory-Management-System\Project_Plan_Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B189B6A5-1756-4480-B076-4FF4642C5B52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00768C8A-A384-40D4-A64D-040808753696}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{C7E6936B-90AD-4E41-93D8-8E23721F7813}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{C7E6936B-90AD-4E41-93D8-8E23721F7813}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
   <si>
     <t>TASK ID</t>
   </si>
@@ -118,13 +118,19 @@
     <t>Select the application Medium</t>
   </si>
   <si>
-    <t>Donovan Ester</t>
-  </si>
-  <si>
-    <t>Kameron Smith</t>
-  </si>
-  <si>
     <t>Set Up environment</t>
+  </si>
+  <si>
+    <t>Select the language to be utilized</t>
+  </si>
+  <si>
+    <t>Walker (Mentor)</t>
+  </si>
+  <si>
+    <t>Everyone</t>
+  </si>
+  <si>
+    <t>Kameron Smith and  Walker (Mentor)</t>
   </si>
 </sst>
 </file>
@@ -768,7 +774,7 @@
   <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -853,7 +859,7 @@
         <v>23</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E3" s="8">
         <v>45691</v>
@@ -865,7 +871,7 @@
         <v>9</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I3" s="7" t="s">
         <v>11</v>
@@ -883,22 +889,22 @@
         <v>1.2</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E4" s="8">
         <v>45692</v>
       </c>
       <c r="F4" s="8">
-        <v>45692</v>
+        <v>45704</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>11</v>
@@ -919,13 +925,27 @@
       <c r="B5" s="7">
         <v>1.3</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
+      <c r="C5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="8">
+        <v>45695</v>
+      </c>
+      <c r="F5" s="8">
+        <v>45695</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="J5" s="5"/>
       <c r="K5" s="9" t="s">
         <v>8</v>

--- a/Project_Plan_Docs/CSC_289_Group_2_Project_Backlog.xlsx
+++ b/Project_Plan_Docs/CSC_289_Group_2_Project_Backlog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\docto\Documents\Programming Capstone Project\Inventory-Management-System\Project_Plan_Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00768C8A-A384-40D4-A64D-040808753696}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE98128F-6210-4717-A8AA-E9D72CBA445C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{C7E6936B-90AD-4E41-93D8-8E23721F7813}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="16305" xr2:uid="{C7E6936B-90AD-4E41-93D8-8E23721F7813}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
   <si>
     <t>TASK ID</t>
   </si>
@@ -131,6 +131,27 @@
   </si>
   <si>
     <t>Kameron Smith and  Walker (Mentor)</t>
+  </si>
+  <si>
+    <t>Database construction and integration</t>
+  </si>
+  <si>
+    <t>Class construction</t>
+  </si>
+  <si>
+    <t>Ethan Bevier, Robert Snyder</t>
+  </si>
+  <si>
+    <t>Look into Micro UI and integrating it with Odin</t>
+  </si>
+  <si>
+    <t>Donovan Ester, Timothy Barton</t>
+  </si>
+  <si>
+    <t>Unit testing</t>
+  </si>
+  <si>
+    <t>CJ Coronado, Kameron Smith</t>
   </si>
 </sst>
 </file>
@@ -773,8 +794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE7569EC-639A-4E4B-A266-3414136787BC}">
   <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1040,8 +1061,12 @@
       <c r="B10" s="7">
         <v>2.1</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
+      <c r="C10" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>35</v>
+      </c>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="7"/>
@@ -1055,8 +1080,12 @@
     <row r="11" spans="1:13" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16"/>
       <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
+      <c r="C11" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="7"/>
@@ -1070,8 +1099,12 @@
     <row r="12" spans="1:13" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16"/>
       <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
+      <c r="C12" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>33</v>
+      </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="7"/>
@@ -1155,7 +1188,9 @@
       <c r="B17" s="7">
         <v>3.1</v>
       </c>
-      <c r="C17" s="7"/>
+      <c r="C17" s="7" t="s">
+        <v>34</v>
+      </c>
       <c r="D17" s="7"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>

--- a/Project_Plan_Docs/CSC_289_Group_2_Project_Backlog.xlsx
+++ b/Project_Plan_Docs/CSC_289_Group_2_Project_Backlog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\docto\Documents\Programming Capstone Project\Inventory-Management-System\Project_Plan_Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE98128F-6210-4717-A8AA-E9D72CBA445C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54BF8CBE-A45B-4293-9C4A-40C806351D9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="16305" xr2:uid="{C7E6936B-90AD-4E41-93D8-8E23721F7813}"/>
+    <workbookView xWindow="2730" yWindow="4140" windowWidth="21600" windowHeight="11835" xr2:uid="{C7E6936B-90AD-4E41-93D8-8E23721F7813}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="36">
   <si>
     <t>TASK ID</t>
   </si>
@@ -794,8 +794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE7569EC-639A-4E4B-A266-3414136787BC}">
   <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1070,8 +1070,12 @@
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
+      <c r="H10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
@@ -1089,8 +1093,12 @@
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
+      <c r="H11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
@@ -1108,8 +1116,12 @@
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
+      <c r="H12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
@@ -1123,7 +1135,9 @@
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
+      <c r="H13" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="I13" s="7"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>

--- a/Project_Plan_Docs/CSC_289_Group_2_Project_Backlog.xlsx
+++ b/Project_Plan_Docs/CSC_289_Group_2_Project_Backlog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\docto\Documents\Programming Capstone Project\Inventory-Management-System\Project_Plan_Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54BF8CBE-A45B-4293-9C4A-40C806351D9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4094F9B7-E452-4324-BAF3-31F5204D18E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="4140" windowWidth="21600" windowHeight="11835" xr2:uid="{C7E6936B-90AD-4E41-93D8-8E23721F7813}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{C7E6936B-90AD-4E41-93D8-8E23721F7813}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="41">
   <si>
     <t>TASK ID</t>
   </si>
@@ -148,10 +148,25 @@
     <t>Donovan Ester, Timothy Barton</t>
   </si>
   <si>
-    <t>Unit testing</t>
-  </si>
-  <si>
     <t>CJ Coronado, Kameron Smith</t>
+  </si>
+  <si>
+    <t>Binary Database integration with class sytem</t>
+  </si>
+  <si>
+    <t>Robert Snyder, CJ Coronado, Ethan Bevier</t>
+  </si>
+  <si>
+    <t>refine Micro UI</t>
+  </si>
+  <si>
+    <t>Donovan Ester, Kameron Smith, Peter Jiayu Zhang</t>
+  </si>
+  <si>
+    <t>Floater (you'll help where it's needed)</t>
+  </si>
+  <si>
+    <t>Timothy Barton</t>
   </si>
 </sst>
 </file>
@@ -795,7 +810,7 @@
   <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1065,10 +1080,15 @@
         <v>29</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
+        <v>34</v>
+      </c>
+      <c r="E10" s="8">
+        <f t="shared" ref="E10:E12" si="0">E9</f>
+        <v>45705</v>
+      </c>
+      <c r="F10" s="8">
+        <v>45709</v>
+      </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7" t="s">
         <v>13</v>
@@ -1090,8 +1110,13 @@
       <c r="D11" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
+      <c r="E11" s="8">
+        <f t="shared" si="0"/>
+        <v>45705</v>
+      </c>
+      <c r="F11" s="8">
+        <v>45711</v>
+      </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7" t="s">
         <v>13</v>
@@ -1113,8 +1138,13 @@
       <c r="D12" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
+      <c r="E12" s="8">
+        <f t="shared" si="0"/>
+        <v>45705</v>
+      </c>
+      <c r="F12" s="8">
+        <v>45711</v>
+      </c>
       <c r="G12" s="7"/>
       <c r="H12" s="7" t="s">
         <v>13</v>
@@ -1135,9 +1165,7 @@
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="7"/>
-      <c r="H13" s="7" t="s">
-        <v>13</v>
-      </c>
+      <c r="H13" s="7"/>
       <c r="I13" s="7"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
@@ -1203,14 +1231,23 @@
         <v>3.1</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="8"/>
+        <v>35</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="8">
+        <f>E16</f>
+        <v>45719</v>
+      </c>
       <c r="F17" s="8"/>
       <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
+      <c r="H17" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
@@ -1218,14 +1255,27 @@
     </row>
     <row r="18" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="16"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="8"/>
+      <c r="B18" s="7">
+        <v>3.2</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="8">
+        <f>E16</f>
+        <v>45719</v>
+      </c>
       <c r="F18" s="8"/>
       <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
+      <c r="H18" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
@@ -1233,14 +1283,27 @@
     </row>
     <row r="19" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="16"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="8"/>
+      <c r="B19" s="7">
+        <v>3.3</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="8">
+        <f>E16</f>
+        <v>45719</v>
+      </c>
       <c r="F19" s="8"/>
       <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
+      <c r="H19" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>

--- a/Project_Plan_Docs/CSC_289_Group_2_Project_Backlog.xlsx
+++ b/Project_Plan_Docs/CSC_289_Group_2_Project_Backlog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\docto\Documents\Programming Capstone Project\Inventory-Management-System\Project_Plan_Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4094F9B7-E452-4324-BAF3-31F5204D18E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A04BDF7-B38F-4F75-B239-C5533D1828F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{C7E6936B-90AD-4E41-93D8-8E23721F7813}"/>
+    <workbookView xWindow="4050" yWindow="4365" windowWidth="21600" windowHeight="11835" xr2:uid="{C7E6936B-90AD-4E41-93D8-8E23721F7813}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="41">
   <si>
     <t>TASK ID</t>
   </si>
@@ -160,20 +160,20 @@
     <t>refine Micro UI</t>
   </si>
   <si>
-    <t>Donovan Ester, Kameron Smith, Peter Jiayu Zhang</t>
-  </si>
-  <si>
     <t>Floater (you'll help where it's needed)</t>
   </si>
   <si>
-    <t>Timothy Barton</t>
+    <t>Donovan Ester, Kameron Smith,Timothy Barton</t>
+  </si>
+  <si>
+    <t>Peter Jiayu Zhang</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -221,8 +221,15 @@
       <name val="Century Gothic"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -241,8 +248,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -380,11 +393,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -426,6 +466,13 @@
     <xf numFmtId="14" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -445,8 +492,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Style 1" xfId="1" xr:uid="{889CBACC-D4C5-4366-9E31-D527EE87F463}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -809,8 +857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE7569EC-639A-4E4B-A266-3414136787BC}">
   <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -863,7 +911,7 @@
       <c r="M1" s="5"/>
     </row>
     <row r="2" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="18" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="6"/>
@@ -887,7 +935,7 @@
       <c r="M2" s="5"/>
     </row>
     <row r="3" spans="1:13" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
+      <c r="A3" s="19"/>
       <c r="B3" s="7">
         <v>1.1000000000000001</v>
       </c>
@@ -913,14 +961,14 @@
         <v>11</v>
       </c>
       <c r="J3" s="5"/>
-      <c r="K3" s="18" t="s">
+      <c r="K3" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="19"/>
-      <c r="M3" s="20"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="23"/>
     </row>
     <row r="4" spans="1:13" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
+      <c r="A4" s="19"/>
       <c r="B4" s="7">
         <v>1.2</v>
       </c>
@@ -957,7 +1005,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="7">
         <v>1.3</v>
       </c>
@@ -994,7 +1042,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="7">
         <v>1.4</v>
       </c>
@@ -1015,7 +1063,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
+      <c r="A7" s="19"/>
       <c r="B7" s="7">
         <v>1.5</v>
       </c>
@@ -1032,7 +1080,7 @@
       <c r="M7" s="11"/>
     </row>
     <row r="8" spans="1:13" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
+      <c r="A8" s="20"/>
       <c r="B8" s="7">
         <v>1.6</v>
       </c>
@@ -1049,7 +1097,7 @@
       <c r="M8" s="11"/>
     </row>
     <row r="9" spans="1:13" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="18" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="6"/>
@@ -1072,7 +1120,7 @@
       <c r="M9" s="5"/>
     </row>
     <row r="10" spans="1:13" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
+      <c r="A10" s="19"/>
       <c r="B10" s="7">
         <v>2.1</v>
       </c>
@@ -1102,7 +1150,7 @@
       <c r="M10" s="5"/>
     </row>
     <row r="11" spans="1:13" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="16"/>
+      <c r="A11" s="19"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7" t="s">
         <v>30</v>
@@ -1130,7 +1178,7 @@
       <c r="M11" s="5"/>
     </row>
     <row r="12" spans="1:13" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
+      <c r="A12" s="19"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7" t="s">
         <v>32</v>
@@ -1158,7 +1206,7 @@
       <c r="M12" s="5"/>
     </row>
     <row r="13" spans="1:13" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="16"/>
+      <c r="A13" s="19"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -1173,7 +1221,7 @@
       <c r="M13" s="5"/>
     </row>
     <row r="14" spans="1:13" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="16"/>
+      <c r="A14" s="19"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -1188,7 +1236,7 @@
       <c r="M14" s="5"/>
     </row>
     <row r="15" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
+      <c r="A15" s="20"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -1203,7 +1251,7 @@
       <c r="M15" s="5"/>
     </row>
     <row r="16" spans="1:13" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="18" t="s">
         <v>18</v>
       </c>
       <c r="B16" s="6"/>
@@ -1226,7 +1274,7 @@
       <c r="M16" s="5"/>
     </row>
     <row r="17" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="16"/>
+      <c r="A17" s="19"/>
       <c r="B17" s="7">
         <v>3.1</v>
       </c>
@@ -1240,7 +1288,10 @@
         <f>E16</f>
         <v>45719</v>
       </c>
-      <c r="F17" s="8"/>
+      <c r="F17" s="8">
+        <f>E20</f>
+        <v>45726</v>
+      </c>
       <c r="G17" s="7"/>
       <c r="H17" s="7" t="s">
         <v>10</v>
@@ -1254,7 +1305,7 @@
       <c r="M17" s="5"/>
     </row>
     <row r="18" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="16"/>
+      <c r="A18" s="19"/>
       <c r="B18" s="7">
         <v>3.2</v>
       </c>
@@ -1262,13 +1313,16 @@
         <v>37</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E18" s="8">
         <f>E16</f>
         <v>45719</v>
       </c>
-      <c r="F18" s="8"/>
+      <c r="F18" s="8">
+        <f>E20</f>
+        <v>45726</v>
+      </c>
       <c r="G18" s="7"/>
       <c r="H18" s="7" t="s">
         <v>10</v>
@@ -1282,12 +1336,12 @@
       <c r="M18" s="5"/>
     </row>
     <row r="19" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="16"/>
+      <c r="A19" s="19"/>
       <c r="B19" s="7">
         <v>3.3</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>40</v>
@@ -1296,7 +1350,10 @@
         <f>E16</f>
         <v>45719</v>
       </c>
-      <c r="F19" s="8"/>
+      <c r="F19" s="8">
+        <f>E20</f>
+        <v>45726</v>
+      </c>
       <c r="G19" s="7"/>
       <c r="H19" s="7" t="s">
         <v>10</v>
@@ -1310,52 +1367,91 @@
       <c r="M19" s="5"/>
     </row>
     <row r="20" spans="1:13" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="16"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="8"/>
+      <c r="A20" s="19"/>
+      <c r="B20" s="7">
+        <v>3.4</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="8">
+        <f>E19+7</f>
+        <v>45726</v>
+      </c>
       <c r="F20" s="8"/>
       <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
+      <c r="H20" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
     </row>
     <row r="21" spans="1:13" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="16"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="8"/>
+      <c r="A21" s="19"/>
+      <c r="B21" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="8">
+        <f>E19+7</f>
+        <v>45726</v>
+      </c>
       <c r="F21" s="8"/>
       <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
+      <c r="H21" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
     </row>
     <row r="22" spans="1:13" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="17"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="8"/>
+      <c r="A22" s="20"/>
+      <c r="B22" s="7">
+        <v>3.6</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="8">
+        <f>E19+7</f>
+        <v>45726</v>
+      </c>
       <c r="F22" s="8"/>
       <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
+      <c r="H22" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
     </row>
     <row r="23" spans="1:13" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="18" t="s">
         <v>19</v>
       </c>
       <c r="B23" s="6"/>
@@ -1378,54 +1474,62 @@
       <c r="M23" s="5"/>
     </row>
     <row r="24" spans="1:13" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="16"/>
-      <c r="B24" s="7">
-        <v>4.0999999999999996</v>
-      </c>
+      <c r="A24" s="19"/>
+      <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
-      <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
+      <c r="H24" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
       <c r="M24" s="5"/>
     </row>
     <row r="25" spans="1:13" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="16"/>
+      <c r="A25" s="19"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="16"/>
       <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
+      <c r="H25" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
       <c r="M25" s="5"/>
     </row>
     <row r="26" spans="1:13" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="16"/>
+      <c r="A26" s="19"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
-      <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
+      <c r="H26" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
     </row>
     <row r="27" spans="1:13" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="16"/>
+      <c r="A27" s="19"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -1440,7 +1544,7 @@
       <c r="M27" s="5"/>
     </row>
     <row r="28" spans="1:13" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="16"/>
+      <c r="A28" s="19"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -1455,7 +1559,7 @@
       <c r="M28" s="5"/>
     </row>
     <row r="29" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="17"/>
+      <c r="A29" s="20"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -1470,7 +1574,7 @@
       <c r="M29" s="5"/>
     </row>
     <row r="30" spans="1:13" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="15" t="s">
+      <c r="A30" s="18" t="s">
         <v>20</v>
       </c>
       <c r="B30" s="6"/>
@@ -1493,7 +1597,7 @@
       <c r="M30" s="5"/>
     </row>
     <row r="31" spans="1:13" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="16"/>
+      <c r="A31" s="19"/>
       <c r="B31" s="7">
         <v>5.0999999999999996</v>
       </c>
@@ -1510,7 +1614,7 @@
       <c r="M31" s="5"/>
     </row>
     <row r="32" spans="1:13" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="16"/>
+      <c r="A32" s="19"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -1525,7 +1629,7 @@
       <c r="M32" s="5"/>
     </row>
     <row r="33" spans="1:13" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="16"/>
+      <c r="A33" s="19"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -1540,7 +1644,7 @@
       <c r="M33" s="5"/>
     </row>
     <row r="34" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="16"/>
+      <c r="A34" s="19"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -1555,7 +1659,7 @@
       <c r="M34" s="5"/>
     </row>
     <row r="35" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="16"/>
+      <c r="A35" s="19"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -1570,7 +1674,7 @@
       <c r="M35" s="5"/>
     </row>
     <row r="36" spans="1:13" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="17"/>
+      <c r="A36" s="20"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -1636,7 +1740,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G8 G10:G15 G17:G22 G24:G29 G31:G36" xr:uid="{8728BA21-71B7-40DE-94B9-BE55ECA8DE92}">
       <formula1>$L$4:$L$6</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H8 H10:H15 H17:H22 H24:H29 H31:H36 H9 H16 H23 H30" xr:uid="{35222030-34B0-45B2-B4D4-34FCB92412EC}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H36" xr:uid="{35222030-34B0-45B2-B4D4-34FCB92412EC}">
       <formula1>$M$4:$M$6</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I8 I10:I15 I17:I22 I24:I29 I31:I36" xr:uid="{09A1D672-F559-43F5-B957-0D95685C99E7}">
